--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,84</t>
+          <t>-0,08; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,5</t>
+          <t>5,3; 10,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,26</t>
+          <t>2,05; 7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,75</t>
+          <t>1,91; 8,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 90,97</t>
+          <t>-1,31; 95,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 181,47</t>
+          <t>59,31; 178,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 148,99</t>
+          <t>26,99; 155,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 80,1</t>
+          <t>12,38; 81,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,19</t>
+          <t>-0,18; 2,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,86</t>
+          <t>1,08; 3,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,82</t>
+          <t>-0,39; 1,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,94</t>
+          <t>-0,44; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 128,42</t>
+          <t>-8,9; 121,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,67; 119,2</t>
+          <t>22,68; 121,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 78,69</t>
+          <t>-11,84; 83,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 58,27</t>
+          <t>-9,88; 59,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,17</t>
+          <t>-0,3; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,34</t>
+          <t>-1,56; 3,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,29</t>
+          <t>-0,99; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,72</t>
+          <t>-2,92; 0,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 343,23</t>
+          <t>-20,79; 358,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 216,03</t>
+          <t>-41,39; 184,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 217,66</t>
+          <t>-35,67; 237,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 27,59</t>
+          <t>-57,24; 25,2</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,68; 2,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,73</t>
+          <t>3,4; 5,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,05</t>
+          <t>0,99; 3,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,97</t>
+          <t>0,85; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>18,75; 99,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,16; 139,42</t>
+          <t>64,88; 142,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 99,4</t>
+          <t>24,63; 103,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 62,76</t>
+          <t>14,49; 68,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,98</t>
+          <t>-0,37; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,63</t>
+          <t>5,0; 10,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,47</t>
+          <t>2,32; 7,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 95,13</t>
+          <t>-5,83; 85,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,31; 178,09</t>
+          <t>56,82; 187,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 155,01</t>
+          <t>30,01; 154,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,26</t>
+          <t>-0,25; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,92</t>
+          <t>0,91; 3,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,86</t>
+          <t>-0,43; 1,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 121,61</t>
+          <t>-8,36; 118,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 121,51</t>
+          <t>19,09; 118,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 83,61</t>
+          <t>-13,34; 80,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,06</t>
+          <t>-0,37; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,28</t>
+          <t>-1,88; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,47</t>
+          <t>-1,29; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 358,66</t>
+          <t>-20,35; 348,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 184,71</t>
+          <t>-52,68; 181,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 237,44</t>
+          <t>-38,91; 225,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,77</t>
+          <t>0,74; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,78</t>
+          <t>3,45; 5,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,11</t>
+          <t>0,99; 3,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 99,32</t>
+          <t>19,0; 90,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,88; 142,32</t>
+          <t>67,94; 144,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 103,27</t>
+          <t>24,42; 96,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,72</t>
+          <t>-0,15; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,56</t>
+          <t>5,23; 10,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,53</t>
+          <t>2,19; 7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,68</t>
+          <t>2,19; 8,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 85,83</t>
+          <t>-3,1; 90,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,82; 187,09</t>
+          <t>59,36; 181,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 154,83</t>
+          <t>29,09; 148,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 81,79</t>
+          <t>13,15; 80,1</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,1</t>
+          <t>-0,27; 2,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,92</t>
+          <t>0,93; 3,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,84</t>
+          <t>-0,49; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,94</t>
+          <t>-0,5; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 118,08</t>
+          <t>-9,84; 128,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,09; 118,05</t>
+          <t>19,67; 119,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 80,79</t>
+          <t>-14,59; 78,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 59,36</t>
+          <t>-11,33; 58,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,01</t>
+          <t>-0,04; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,36</t>
+          <t>-1,52; 3,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,21</t>
+          <t>-1,02; 3,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,71</t>
+          <t>-2,84; 0,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 348,39</t>
+          <t>-8,59; 343,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 181,09</t>
+          <t>-41,69; 216,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 225,05</t>
+          <t>-34,02; 217,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 25,2</t>
+          <t>-56,3; 27,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,56</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,94</t>
+          <t>3,37; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,03</t>
+          <t>0,96; 3,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,11</t>
+          <t>0,88; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 90,79</t>
+          <t>15,73; 94,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,94; 144,91</t>
+          <t>64,16; 139,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 96,77</t>
+          <t>23,83; 99,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 68,77</t>
+          <t>15,02; 62,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>45,16%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,75</t>
+          <t>2,26; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 80,1</t>
+          <t>14,47; 84,28</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>23,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,94</t>
+          <t>-0,62; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 58,27</t>
+          <t>-14,43; 84,99</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-24,28%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,72</t>
+          <t>-2,86; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 27,59</t>
+          <t>-55,98; 27,39</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>40,55%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,97</t>
+          <t>0,6; 3,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 62,76</t>
+          <t>11,82; 79,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,84</t>
+          <t>-0,15; 3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,5</t>
+          <t>5,25; 10,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,26</t>
+          <t>1,88; 7,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,81</t>
+          <t>2,52; 8,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 90,97</t>
+          <t>-3,75; 91,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 181,47</t>
+          <t>62,08; 174,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 148,99</t>
+          <t>26,51; 147,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 84,28</t>
+          <t>16,98; 90,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,19</t>
+          <t>-0,27; 2,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,86</t>
+          <t>1,06; 4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,82</t>
+          <t>-0,48; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,23</t>
+          <t>-0,67; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 128,42</t>
+          <t>-10,53; 124,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,67; 119,2</t>
+          <t>23,62; 122,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 78,69</t>
+          <t>-13,89; 80,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 84,99</t>
+          <t>-14,96; 79,69</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,17</t>
+          <t>-0,14; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,34</t>
+          <t>-1,79; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,29</t>
+          <t>-1,21; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,75</t>
+          <t>-2,73; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 343,23</t>
+          <t>-14,59; 347,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 216,03</t>
+          <t>-46,82; 208,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 217,66</t>
+          <t>-39,23; 220,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 27,39</t>
+          <t>-53,81; 37,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,73</t>
+          <t>3,36; 5,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,05</t>
+          <t>0,99; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,23</t>
+          <t>0,57; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>15,35; 93,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,16; 139,42</t>
+          <t>65,88; 141,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 99,4</t>
+          <t>23,66; 104,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 79,54</t>
+          <t>10,91; 82,66</t>
         </is>
       </c>
     </row>
